--- a/top20_danmu.xlsx
+++ b/top20_danmu.xlsx
@@ -453,29 +453,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1240</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">支持
+          <t xml:space="preserve">见证历史
 </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1057</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">见证历史
+          <t xml:space="preserve">支持
 </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>952</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5">
@@ -486,29 +486,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">支持！
+          <t xml:space="preserve">保护海洋！保护地球！
 </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">保护海洋！保护地球！
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8">
@@ -519,139 +519,139 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">保护地球
 </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>303</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">保护地球
+          <t xml:space="preserve">坚决抵制日本核污水排海！！！保护海洋！！！
 </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">好
+          <t xml:space="preserve">保护海洋！！！
 </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">保护海洋！！！
+          <t xml:space="preserve">坚决抵制日本核污水排海
 </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">好！
+          <t xml:space="preserve">支持！
 </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">坚决抵制日本核污水排海！！！保护海洋！！！
+          <t xml:space="preserve">保护海洋，保护地球
 </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">保护海洋，保护地球
+          <t xml:space="preserve">坚决抵制日本排放核污水！！！
 </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">坚决抵制日本排放核污水
+          <t xml:space="preserve">注意安全
 </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">注意安全
+          <t xml:space="preserve">保护地球！保护海洋！
 </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">保护地球！保护海洋！
+          <t xml:space="preserve">逆天
 </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">保护海洋，保护地球！！！
+          <t xml:space="preserve">好
 </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">支持！！！
+          <t xml:space="preserve">辐岛
 </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
